--- a/biology/Biochimie/Canal_ionique_ASIC/Canal_ionique_ASIC.xlsx
+++ b/biology/Biochimie/Canal_ionique_ASIC/Canal_ionique_ASIC.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le canal ionique ASIC (de l'anglais "acid-sensing ion channel") est un canal ionique de la famille DEG/ENaC activé par l'acidification extracellulaire. Quatre gènes codent 6 isoformes : ASIC1a (ASIC,ASICα), ASIC1b (ASICβ), ASIC2a, ASIC2b, ASIC3 (DRASIC) et ASIC4 (SPASIC). De ces six isoformes, quatre sont actives sous forme homomérique : ASIC1a, ASIC1b, ASIC2a et ASIC3. L'isoforme ASIC2b a la capacité de moduler le courant lorsqu'il est exprimé avec d'autres isoformes et forme un hétéromère. À ce jour, aucune fonction n'a été trouvée pour l'isoforme ASIC4. Le canal est principalement sélectif au sodium (PNa/PK≈10. La perméabilité au calcium est très faible excepté pour ASIC1a (PCa/PNa≈xxx).
 </t>
@@ -511,7 +523,9 @@
           <t>Pharmacologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">ASIC est inhibé par l'amiloride.
 ASIC1a est spécifiquement inhibé par un peptide extrait du venin de la mygale Psalmopoeus cambridgei, la psalmotoxine (PcTX1).
@@ -543,7 +557,9 @@
           <t>Rôles physiologiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les canaux ioniques ASIC sont possiblement impliqués dans les mécanismes de douleur, de mécanotransduction, de neurotransmission, etc.
 ASIC1a
@@ -579,7 +595,9 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La structure cristalline obtenue en … révèle une organisation en trimère.
  Portail de la biochimie                     </t>
